--- a/ex.xlsx
+++ b/ex.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SupaRoopaN\Desktop\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E1883F-6927-4834-BC5A-51E2120E333B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B9628A-6D25-486D-8941-C51621932187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -960,7 +960,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,7 +1073,7 @@
         <v>44473</v>
       </c>
       <c r="F7" s="1">
-        <v>44435</v>
+        <v>44466</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1173,7 +1173,7 @@
         <v>44205</v>
       </c>
       <c r="F12" s="1">
-        <v>44454</v>
+        <v>44464</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
